--- a/6/1/1/3/5/Posiciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/5/Posiciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="191">
   <si>
     <t>Serie</t>
   </si>
@@ -584,6 +584,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -941,7 +944,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R175"/>
+  <dimension ref="A1:R176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10640,7 +10643,7 @@
         <v>188</v>
       </c>
       <c r="B174">
-        <v>-11441</v>
+        <v>-11443</v>
       </c>
       <c r="C174">
         <v>-8187</v>
@@ -10652,16 +10655,16 @@
         <v>8476</v>
       </c>
       <c r="F174">
-        <v>-3254</v>
+        <v>-3256</v>
       </c>
       <c r="G174">
         <v>90</v>
       </c>
       <c r="H174">
-        <v>3344</v>
+        <v>3347</v>
       </c>
       <c r="I174">
-        <v>12200</v>
+        <v>12202</v>
       </c>
       <c r="J174">
         <v>8765</v>
@@ -10688,7 +10691,7 @@
         <v>5452</v>
       </c>
       <c r="R174">
-        <v>3434</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="175" spans="1:18">
@@ -10696,7 +10699,7 @@
         <v>189</v>
       </c>
       <c r="B175">
-        <v>-11503</v>
+        <v>-11522</v>
       </c>
       <c r="C175">
         <v>-8165</v>
@@ -10708,16 +10711,16 @@
         <v>8469</v>
       </c>
       <c r="F175">
-        <v>-3338</v>
+        <v>-3357</v>
       </c>
       <c r="G175">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H175">
-        <v>3338</v>
+        <v>3379</v>
       </c>
       <c r="I175">
-        <v>12112</v>
+        <v>12175</v>
       </c>
       <c r="J175">
         <v>8774</v>
@@ -10729,7 +10732,7 @@
         <v>249</v>
       </c>
       <c r="M175">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="N175">
         <v>437</v>
@@ -10741,10 +10744,66 @@
         <v>1314</v>
       </c>
       <c r="Q175">
-        <v>5428</v>
+        <v>5423</v>
       </c>
       <c r="R175">
-        <v>3338</v>
+        <v>3401</v>
+      </c>
+    </row>
+    <row r="176" spans="1:18">
+      <c r="A176" t="s">
+        <v>190</v>
+      </c>
+      <c r="B176">
+        <v>-11708</v>
+      </c>
+      <c r="C176">
+        <v>-8301</v>
+      </c>
+      <c r="D176">
+        <v>329</v>
+      </c>
+      <c r="E176">
+        <v>8630</v>
+      </c>
+      <c r="F176">
+        <v>-3407</v>
+      </c>
+      <c r="G176">
+        <v>12</v>
+      </c>
+      <c r="H176">
+        <v>3420</v>
+      </c>
+      <c r="I176">
+        <v>12392</v>
+      </c>
+      <c r="J176">
+        <v>8960</v>
+      </c>
+      <c r="K176">
+        <v>53</v>
+      </c>
+      <c r="L176">
+        <v>494</v>
+      </c>
+      <c r="M176">
+        <v>737</v>
+      </c>
+      <c r="N176">
+        <v>462</v>
+      </c>
+      <c r="O176">
+        <v>590</v>
+      </c>
+      <c r="P176">
+        <v>1236</v>
+      </c>
+      <c r="Q176">
+        <v>5389</v>
+      </c>
+      <c r="R176">
+        <v>3432</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/3/5/Posiciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/5/Posiciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="192">
   <si>
     <t>Serie</t>
   </si>
@@ -587,6 +587,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -944,7 +947,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R176"/>
+  <dimension ref="A1:R177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10646,7 +10649,7 @@
         <v>-11443</v>
       </c>
       <c r="C174">
-        <v>-8187</v>
+        <v>-8186</v>
       </c>
       <c r="D174">
         <v>289</v>
@@ -10688,7 +10691,7 @@
         <v>1296</v>
       </c>
       <c r="Q174">
-        <v>5452</v>
+        <v>5451</v>
       </c>
       <c r="R174">
         <v>3437</v>
@@ -10699,10 +10702,10 @@
         <v>189</v>
       </c>
       <c r="B175">
-        <v>-11522</v>
+        <v>-11521</v>
       </c>
       <c r="C175">
-        <v>-8165</v>
+        <v>-8164</v>
       </c>
       <c r="D175">
         <v>304</v>
@@ -10720,10 +10723,10 @@
         <v>3379</v>
       </c>
       <c r="I175">
-        <v>12175</v>
+        <v>12174</v>
       </c>
       <c r="J175">
-        <v>8774</v>
+        <v>8773</v>
       </c>
       <c r="K175">
         <v>44</v>
@@ -10776,10 +10779,10 @@
         <v>3420</v>
       </c>
       <c r="I176">
-        <v>12392</v>
+        <v>12391</v>
       </c>
       <c r="J176">
-        <v>8960</v>
+        <v>8959</v>
       </c>
       <c r="K176">
         <v>53</v>
@@ -10804,6 +10807,62 @@
       </c>
       <c r="R176">
         <v>3432</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18">
+      <c r="A177" t="s">
+        <v>191</v>
+      </c>
+      <c r="B177">
+        <v>-11746</v>
+      </c>
+      <c r="C177">
+        <v>-8308</v>
+      </c>
+      <c r="D177">
+        <v>261</v>
+      </c>
+      <c r="E177">
+        <v>8569</v>
+      </c>
+      <c r="F177">
+        <v>-3438</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>3438</v>
+      </c>
+      <c r="I177">
+        <v>12268</v>
+      </c>
+      <c r="J177">
+        <v>8830</v>
+      </c>
+      <c r="K177">
+        <v>28</v>
+      </c>
+      <c r="L177">
+        <v>243</v>
+      </c>
+      <c r="M177">
+        <v>662</v>
+      </c>
+      <c r="N177">
+        <v>525</v>
+      </c>
+      <c r="O177">
+        <v>735</v>
+      </c>
+      <c r="P177">
+        <v>1204</v>
+      </c>
+      <c r="Q177">
+        <v>5432</v>
+      </c>
+      <c r="R177">
+        <v>3438</v>
       </c>
     </row>
   </sheetData>

--- a/6/1/1/3/5/Posiciones 2007 a 2021 - Mensual.xlsx
+++ b/6/1/1/3/5/Posiciones 2007 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="193">
   <si>
     <t>Serie</t>
   </si>
@@ -590,6 +590,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -947,7 +950,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R177"/>
+  <dimension ref="A1:R178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10702,16 +10705,16 @@
         <v>189</v>
       </c>
       <c r="B175">
-        <v>-11521</v>
+        <v>-11519</v>
       </c>
       <c r="C175">
-        <v>-8164</v>
+        <v>-8162</v>
       </c>
       <c r="D175">
         <v>304</v>
       </c>
       <c r="E175">
-        <v>8469</v>
+        <v>8466</v>
       </c>
       <c r="F175">
         <v>-3357</v>
@@ -10723,10 +10726,10 @@
         <v>3379</v>
       </c>
       <c r="I175">
-        <v>12174</v>
+        <v>12172</v>
       </c>
       <c r="J175">
-        <v>8773</v>
+        <v>8771</v>
       </c>
       <c r="K175">
         <v>44</v>
@@ -10744,10 +10747,10 @@
         <v>534</v>
       </c>
       <c r="P175">
-        <v>1314</v>
+        <v>1354</v>
       </c>
       <c r="Q175">
-        <v>5423</v>
+        <v>5380</v>
       </c>
       <c r="R175">
         <v>3401</v>
@@ -10758,16 +10761,16 @@
         <v>190</v>
       </c>
       <c r="B176">
-        <v>-11708</v>
+        <v>-11705</v>
       </c>
       <c r="C176">
-        <v>-8301</v>
+        <v>-8298</v>
       </c>
       <c r="D176">
         <v>329</v>
       </c>
       <c r="E176">
-        <v>8630</v>
+        <v>8627</v>
       </c>
       <c r="F176">
         <v>-3407</v>
@@ -10779,10 +10782,10 @@
         <v>3420</v>
       </c>
       <c r="I176">
-        <v>12391</v>
+        <v>12389</v>
       </c>
       <c r="J176">
-        <v>8959</v>
+        <v>8957</v>
       </c>
       <c r="K176">
         <v>53</v>
@@ -10800,10 +10803,10 @@
         <v>590</v>
       </c>
       <c r="P176">
-        <v>1236</v>
+        <v>1275</v>
       </c>
       <c r="Q176">
-        <v>5389</v>
+        <v>5347</v>
       </c>
       <c r="R176">
         <v>3432</v>
@@ -10814,16 +10817,16 @@
         <v>191</v>
       </c>
       <c r="B177">
-        <v>-11746</v>
+        <v>-11744</v>
       </c>
       <c r="C177">
-        <v>-8308</v>
+        <v>-8306</v>
       </c>
       <c r="D177">
         <v>261</v>
       </c>
       <c r="E177">
-        <v>8569</v>
+        <v>8567</v>
       </c>
       <c r="F177">
         <v>-3438</v>
@@ -10835,10 +10838,10 @@
         <v>3438</v>
       </c>
       <c r="I177">
-        <v>12268</v>
+        <v>12266</v>
       </c>
       <c r="J177">
-        <v>8830</v>
+        <v>8828</v>
       </c>
       <c r="K177">
         <v>28</v>
@@ -10856,13 +10859,69 @@
         <v>735</v>
       </c>
       <c r="P177">
-        <v>1204</v>
+        <v>1244</v>
       </c>
       <c r="Q177">
-        <v>5432</v>
+        <v>5390</v>
       </c>
       <c r="R177">
         <v>3438</v>
+      </c>
+    </row>
+    <row r="178" spans="1:18">
+      <c r="A178" t="s">
+        <v>192</v>
+      </c>
+      <c r="B178">
+        <v>-11872</v>
+      </c>
+      <c r="C178">
+        <v>-8507</v>
+      </c>
+      <c r="D178">
+        <v>324</v>
+      </c>
+      <c r="E178">
+        <v>8831</v>
+      </c>
+      <c r="F178">
+        <v>-3365</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>3365</v>
+      </c>
+      <c r="I178">
+        <v>12519</v>
+      </c>
+      <c r="J178">
+        <v>9154</v>
+      </c>
+      <c r="K178">
+        <v>43</v>
+      </c>
+      <c r="L178">
+        <v>194</v>
+      </c>
+      <c r="M178">
+        <v>819</v>
+      </c>
+      <c r="N178">
+        <v>569</v>
+      </c>
+      <c r="O178">
+        <v>722</v>
+      </c>
+      <c r="P178">
+        <v>1222</v>
+      </c>
+      <c r="Q178">
+        <v>5586</v>
+      </c>
+      <c r="R178">
+        <v>3365</v>
       </c>
     </row>
   </sheetData>
